--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4AA4A-C682-F045-B06D-DB60817BDE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33720F-2A58-4B67-A42A-B56D00F7499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -237,6 +248,50 @@
   </si>
   <si>
     <t>LocalizeConfig_UI.csv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig\ResConfig\ResAudioCfg.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig\ResConfig\ResEffectCfg.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig\ResConfig\ResUnitCfg.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudioCfg</t>
+  </si>
+  <si>
+    <t>ResEffectCfg</t>
+  </si>
+  <si>
+    <t>ResUnitCfg</t>
+  </si>
+  <si>
+    <t>AbilityConfig.ResAudioCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig.ResEffectCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig.ResUnitCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCfg</t>
+  </si>
+  <si>
+    <t>AbilityConfig.UnitCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityConfig\UnitConfig\UnitCfg.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +327,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +378,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,16 +659,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
@@ -610,7 +676,7 @@
     <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -686,7 +752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,7 +778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -729,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -746,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -763,7 +829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -780,7 +846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -794,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -808,7 +874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
@@ -826,7 +892,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
@@ -844,7 +910,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
@@ -862,7 +928,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -879,7 +945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
@@ -896,7 +962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -911,6 +977,62 @@
       </c>
       <c r="H15" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
